--- a/Algemeen/Scrumlog/Invulblad.xlsx
+++ b/Algemeen/Scrumlog/Invulblad.xlsx
@@ -2,19 +2,19 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Gebruiker\Documents\GitHub\FPS\Algemeen\Scrumlog\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\super\Desktop\GitHub\Team-Asylum3\Algemeen\Scrumlog\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7620"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20496" windowHeight="7620"/>
   </bookViews>
   <sheets>
     <sheet name="Blad1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="152511"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="19">
   <si>
     <t>Week #</t>
   </si>
@@ -81,57 +81,12 @@
   </si>
   <si>
     <t>Rief , Michiel , Robin</t>
-  </si>
-  <si>
-    <t>Shotgun</t>
-  </si>
-  <si>
-    <t>Gunscript</t>
-  </si>
-  <si>
-    <t>Player Controller</t>
-  </si>
-  <si>
-    <t>unwrap pistol</t>
-  </si>
-  <si>
-    <t>main menu</t>
-  </si>
-  <si>
-    <t>Main Character</t>
-  </si>
-  <si>
-    <t>Muren en Textures</t>
-  </si>
-  <si>
-    <t>Shotgun texture</t>
-  </si>
-  <si>
-    <t>Planning volgen</t>
-  </si>
-  <si>
-    <t>Planning Maken</t>
-  </si>
-  <si>
-    <t>Texture en Animatie</t>
-  </si>
-  <si>
-    <t>Main Character]</t>
-  </si>
-  <si>
-    <t>Waarom zo boos?(-zine)</t>
-  </si>
-  <si>
-    <t>Anxiety</t>
-  </si>
-  <si>
-    <t>Team Spirit</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -599,12 +554,12 @@
   <dimension ref="A1:H32"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C31" sqref="C31"/>
+      <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A1" s="10" t="s">
         <v>0</v>
       </c>
@@ -618,7 +573,7 @@
       <c r="G1" s="8"/>
       <c r="H1" s="5"/>
     </row>
-    <row r="2" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A2" s="11" t="s">
         <v>1</v>
       </c>
@@ -632,7 +587,7 @@
       <c r="G2" s="3"/>
       <c r="H2" s="2"/>
     </row>
-    <row r="3" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A3" s="10" t="s">
         <v>3</v>
       </c>
@@ -646,7 +601,7 @@
       <c r="G3" s="9"/>
       <c r="H3" s="7"/>
     </row>
-    <row r="4" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A4" s="12" t="s">
         <v>2</v>
       </c>
@@ -660,7 +615,7 @@
       <c r="G4" s="9"/>
       <c r="H4" s="7"/>
     </row>
-    <row r="5" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A5" s="1"/>
       <c r="B5" s="2"/>
       <c r="C5" s="12" t="s">
@@ -672,105 +627,91 @@
       <c r="G5" s="9"/>
       <c r="H5" s="7"/>
     </row>
-    <row r="6" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A6" s="4" t="s">
         <v>4</v>
       </c>
       <c r="B6" s="5"/>
-      <c r="C6" s="8" t="s">
-        <v>19</v>
-      </c>
+      <c r="C6" s="8"/>
       <c r="D6" s="8"/>
       <c r="E6" s="8"/>
       <c r="F6" s="8"/>
       <c r="G6" s="8"/>
       <c r="H6" s="5"/>
     </row>
-    <row r="7" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A7" s="4" t="s">
         <v>5</v>
       </c>
       <c r="B7" s="5"/>
-      <c r="C7" s="8" t="s">
-        <v>20</v>
-      </c>
+      <c r="C7" s="8"/>
       <c r="D7" s="8"/>
       <c r="E7" s="8"/>
       <c r="F7" s="8"/>
       <c r="G7" s="8"/>
       <c r="H7" s="5"/>
     </row>
-    <row r="8" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A8" s="4" t="s">
         <v>6</v>
       </c>
       <c r="B8" s="5"/>
-      <c r="C8" s="8" t="s">
-        <v>21</v>
-      </c>
+      <c r="C8" s="8"/>
       <c r="D8" s="8"/>
       <c r="E8" s="8"/>
       <c r="F8" s="8"/>
       <c r="G8" s="8"/>
       <c r="H8" s="5"/>
     </row>
-    <row r="9" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A9" s="1" t="s">
         <v>7</v>
       </c>
       <c r="B9" s="2"/>
-      <c r="C9" s="3" t="s">
-        <v>22</v>
-      </c>
+      <c r="C9" s="3"/>
       <c r="D9" s="3"/>
       <c r="E9" s="3"/>
       <c r="F9" s="3"/>
       <c r="G9" s="3"/>
       <c r="H9" s="2"/>
     </row>
-    <row r="10" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A10" s="6" t="s">
         <v>8</v>
       </c>
       <c r="B10" s="7"/>
-      <c r="C10" s="9" t="s">
-        <v>23</v>
-      </c>
+      <c r="C10" s="9"/>
       <c r="D10" s="9"/>
       <c r="E10" s="9"/>
       <c r="F10" s="9"/>
       <c r="G10" s="9"/>
       <c r="H10" s="7"/>
     </row>
-    <row r="11" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A11" s="6" t="s">
         <v>9</v>
       </c>
       <c r="B11" s="7"/>
-      <c r="C11" s="9" t="s">
-        <v>24</v>
-      </c>
+      <c r="C11" s="9"/>
       <c r="D11" s="9"/>
       <c r="E11" s="9"/>
       <c r="F11" s="9"/>
       <c r="G11" s="9"/>
       <c r="H11" s="7"/>
     </row>
-    <row r="12" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A12" s="6" t="s">
         <v>10</v>
       </c>
       <c r="B12" s="7"/>
-      <c r="C12" s="9" t="s">
-        <v>25</v>
-      </c>
+      <c r="C12" s="9"/>
       <c r="D12" s="9"/>
       <c r="E12" s="9"/>
       <c r="F12" s="9"/>
       <c r="G12" s="9"/>
       <c r="H12" s="7"/>
     </row>
-    <row r="13" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A13" s="1"/>
       <c r="B13" s="2"/>
       <c r="C13" s="12" t="s">
@@ -782,105 +723,91 @@
       <c r="G13" s="9"/>
       <c r="H13" s="7"/>
     </row>
-    <row r="14" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A14" s="4" t="s">
         <v>4</v>
       </c>
       <c r="B14" s="5"/>
-      <c r="C14" s="8" t="s">
-        <v>26</v>
-      </c>
+      <c r="C14" s="8"/>
       <c r="D14" s="8"/>
       <c r="E14" s="8"/>
       <c r="F14" s="8"/>
       <c r="G14" s="8"/>
       <c r="H14" s="5"/>
     </row>
-    <row r="15" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A15" s="4" t="s">
         <v>5</v>
       </c>
       <c r="B15" s="5"/>
-      <c r="C15" s="8" t="s">
-        <v>27</v>
-      </c>
+      <c r="C15" s="8"/>
       <c r="D15" s="8"/>
       <c r="E15" s="8"/>
       <c r="F15" s="8"/>
       <c r="G15" s="8"/>
       <c r="H15" s="5"/>
     </row>
-    <row r="16" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A16" s="4" t="s">
         <v>6</v>
       </c>
       <c r="B16" s="5"/>
-      <c r="C16" s="8" t="s">
-        <v>28</v>
-      </c>
+      <c r="C16" s="8"/>
       <c r="D16" s="8"/>
       <c r="E16" s="8"/>
       <c r="F16" s="8"/>
       <c r="G16" s="8"/>
       <c r="H16" s="5"/>
     </row>
-    <row r="17" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A17" s="1" t="s">
         <v>7</v>
       </c>
       <c r="B17" s="2"/>
-      <c r="C17" s="3" t="s">
-        <v>29</v>
-      </c>
+      <c r="C17" s="3"/>
       <c r="D17" s="3"/>
       <c r="E17" s="3"/>
       <c r="F17" s="3"/>
       <c r="G17" s="3"/>
       <c r="H17" s="2"/>
     </row>
-    <row r="18" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A18" s="6" t="s">
         <v>8</v>
       </c>
       <c r="B18" s="7"/>
-      <c r="C18" s="9" t="s">
-        <v>28</v>
-      </c>
+      <c r="C18" s="9"/>
       <c r="D18" s="9"/>
       <c r="E18" s="9"/>
       <c r="F18" s="9"/>
       <c r="G18" s="9"/>
       <c r="H18" s="7"/>
     </row>
-    <row r="19" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A19" s="6" t="s">
         <v>9</v>
       </c>
       <c r="B19" s="7"/>
-      <c r="C19" s="9" t="s">
-        <v>30</v>
-      </c>
+      <c r="C19" s="9"/>
       <c r="D19" s="9"/>
       <c r="E19" s="9"/>
       <c r="F19" s="9"/>
       <c r="G19" s="9"/>
       <c r="H19" s="7"/>
     </row>
-    <row r="20" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A20" s="6" t="s">
         <v>10</v>
       </c>
       <c r="B20" s="7"/>
-      <c r="C20" s="9" t="s">
-        <v>25</v>
-      </c>
+      <c r="C20" s="9"/>
       <c r="D20" s="9"/>
       <c r="E20" s="9"/>
       <c r="F20" s="9"/>
       <c r="G20" s="9"/>
       <c r="H20" s="7"/>
     </row>
-    <row r="21" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A21" s="1"/>
       <c r="B21" s="2"/>
       <c r="C21" s="12" t="s">
@@ -892,7 +819,7 @@
       <c r="G21" s="9"/>
       <c r="H21" s="7"/>
     </row>
-    <row r="22" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A22" s="4" t="s">
         <v>4</v>
       </c>
@@ -904,35 +831,31 @@
       <c r="G22" s="8"/>
       <c r="H22" s="5"/>
     </row>
-    <row r="23" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A23" s="4" t="s">
         <v>5</v>
       </c>
       <c r="B23" s="5"/>
-      <c r="C23" s="8" t="s">
-        <v>31</v>
-      </c>
+      <c r="C23" s="8"/>
       <c r="D23" s="8"/>
       <c r="E23" s="8"/>
       <c r="F23" s="8"/>
       <c r="G23" s="8"/>
       <c r="H23" s="5"/>
     </row>
-    <row r="24" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A24" s="4" t="s">
         <v>6</v>
       </c>
       <c r="B24" s="5"/>
-      <c r="C24" s="8" t="s">
-        <v>32</v>
-      </c>
+      <c r="C24" s="8"/>
       <c r="D24" s="8"/>
       <c r="E24" s="8"/>
       <c r="F24" s="8"/>
       <c r="G24" s="8"/>
       <c r="H24" s="5"/>
     </row>
-    <row r="25" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A25" s="1" t="s">
         <v>7</v>
       </c>
@@ -944,7 +867,7 @@
       <c r="G25" s="3"/>
       <c r="H25" s="2"/>
     </row>
-    <row r="26" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A26" s="6" t="s">
         <v>8</v>
       </c>
@@ -956,7 +879,7 @@
       <c r="G26" s="9"/>
       <c r="H26" s="7"/>
     </row>
-    <row r="27" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A27" s="6" t="s">
         <v>9</v>
       </c>
@@ -968,7 +891,7 @@
       <c r="G27" s="9"/>
       <c r="H27" s="7"/>
     </row>
-    <row r="28" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A28" s="6" t="s">
         <v>10</v>
       </c>
@@ -980,21 +903,19 @@
       <c r="G28" s="9"/>
       <c r="H28" s="7"/>
     </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A29" s="4" t="s">
         <v>15</v>
       </c>
       <c r="B29" s="5"/>
-      <c r="C29" s="8" t="s">
-        <v>33</v>
-      </c>
+      <c r="C29" s="8"/>
       <c r="D29" s="8"/>
       <c r="E29" s="8"/>
       <c r="F29" s="8"/>
       <c r="G29" s="8"/>
       <c r="H29" s="5"/>
     </row>
-    <row r="30" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A30" s="6"/>
       <c r="B30" s="7"/>
       <c r="C30" s="9"/>
@@ -1004,7 +925,7 @@
       <c r="G30" s="9"/>
       <c r="H30" s="7"/>
     </row>
-    <row r="31" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A31" s="4" t="s">
         <v>16</v>
       </c>
@@ -1016,7 +937,7 @@
       <c r="G31" s="8"/>
       <c r="H31" s="5"/>
     </row>
-    <row r="32" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A32" s="6"/>
       <c r="B32" s="7"/>
       <c r="C32" s="9"/>

--- a/Algemeen/Scrumlog/Invulblad.xlsx
+++ b/Algemeen/Scrumlog/Invulblad.xlsx
@@ -1,15 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="16729"/>
+  <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\super\Desktop\GitHub\Team-Asylum3\Algemeen\Scrumlog\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Gebruiker\Documents\GitHub\Team-Asylum3\Algemeen\Scrumlog\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20496" windowHeight="7620"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7620"/>
   </bookViews>
   <sheets>
     <sheet name="Blad1" sheetId="1" r:id="rId1"/>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="16">
   <si>
     <t>Week #</t>
   </si>
@@ -68,25 +68,16 @@
     <t>Tegen welke problemen ben je aangelopen?</t>
   </si>
   <si>
-    <t>Team Asylum</t>
-  </si>
-  <si>
     <t>Wat gaat er goed?</t>
   </si>
   <si>
     <t>Wat kan er beter</t>
-  </si>
-  <si>
-    <t>Carlo Zine Marc Sam</t>
-  </si>
-  <si>
-    <t>Rief , Michiel , Robin</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -223,7 +214,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
@@ -237,6 +228,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Standaard" xfId="0" builtinId="0"/>
@@ -551,71 +543,63 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H32"/>
+  <dimension ref="A1:H33"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C3" sqref="C3"/>
+      <selection activeCell="C32" sqref="C32"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="10" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="3"/>
-      <c r="C1" s="4">
-        <v>10</v>
-      </c>
+      <c r="C1" s="4"/>
       <c r="D1" s="8"/>
       <c r="E1" s="8"/>
       <c r="F1" s="8"/>
       <c r="G1" s="8"/>
       <c r="H1" s="5"/>
     </row>
-    <row r="2" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="11" t="s">
         <v>1</v>
       </c>
       <c r="B2" s="8"/>
-      <c r="C2" s="1" t="s">
-        <v>14</v>
-      </c>
+      <c r="C2" s="1"/>
       <c r="D2" s="3"/>
       <c r="E2" s="3"/>
       <c r="F2" s="3"/>
       <c r="G2" s="3"/>
       <c r="H2" s="2"/>
     </row>
-    <row r="3" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="10" t="s">
         <v>3</v>
       </c>
       <c r="B3" s="3"/>
-      <c r="C3" s="6" t="s">
-        <v>17</v>
-      </c>
+      <c r="C3" s="6"/>
       <c r="D3" s="9"/>
       <c r="E3" s="9"/>
       <c r="F3" s="9"/>
       <c r="G3" s="9"/>
       <c r="H3" s="7"/>
     </row>
-    <row r="4" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="12" t="s">
         <v>2</v>
       </c>
       <c r="B4" s="9"/>
-      <c r="C4" s="6" t="s">
-        <v>18</v>
-      </c>
+      <c r="C4" s="6"/>
       <c r="D4" s="9"/>
       <c r="E4" s="9"/>
       <c r="F4" s="9"/>
       <c r="G4" s="9"/>
       <c r="H4" s="7"/>
     </row>
-    <row r="5" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A5" s="1"/>
       <c r="B5" s="2"/>
       <c r="C5" s="12" t="s">
@@ -627,7 +611,7 @@
       <c r="G5" s="9"/>
       <c r="H5" s="7"/>
     </row>
-    <row r="6" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A6" s="4" t="s">
         <v>4</v>
       </c>
@@ -639,7 +623,7 @@
       <c r="G6" s="8"/>
       <c r="H6" s="5"/>
     </row>
-    <row r="7" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A7" s="4" t="s">
         <v>5</v>
       </c>
@@ -651,7 +635,7 @@
       <c r="G7" s="8"/>
       <c r="H7" s="5"/>
     </row>
-    <row r="8" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A8" s="4" t="s">
         <v>6</v>
       </c>
@@ -663,7 +647,7 @@
       <c r="G8" s="8"/>
       <c r="H8" s="5"/>
     </row>
-    <row r="9" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A9" s="1" t="s">
         <v>7</v>
       </c>
@@ -675,7 +659,7 @@
       <c r="G9" s="3"/>
       <c r="H9" s="2"/>
     </row>
-    <row r="10" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A10" s="6" t="s">
         <v>8</v>
       </c>
@@ -687,7 +671,7 @@
       <c r="G10" s="9"/>
       <c r="H10" s="7"/>
     </row>
-    <row r="11" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A11" s="6" t="s">
         <v>9</v>
       </c>
@@ -699,7 +683,7 @@
       <c r="G11" s="9"/>
       <c r="H11" s="7"/>
     </row>
-    <row r="12" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A12" s="6" t="s">
         <v>10</v>
       </c>
@@ -711,7 +695,7 @@
       <c r="G12" s="9"/>
       <c r="H12" s="7"/>
     </row>
-    <row r="13" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A13" s="1"/>
       <c r="B13" s="2"/>
       <c r="C13" s="12" t="s">
@@ -723,7 +707,7 @@
       <c r="G13" s="9"/>
       <c r="H13" s="7"/>
     </row>
-    <row r="14" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A14" s="4" t="s">
         <v>4</v>
       </c>
@@ -735,7 +719,7 @@
       <c r="G14" s="8"/>
       <c r="H14" s="5"/>
     </row>
-    <row r="15" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A15" s="4" t="s">
         <v>5</v>
       </c>
@@ -747,7 +731,7 @@
       <c r="G15" s="8"/>
       <c r="H15" s="5"/>
     </row>
-    <row r="16" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A16" s="4" t="s">
         <v>6</v>
       </c>
@@ -759,7 +743,7 @@
       <c r="G16" s="8"/>
       <c r="H16" s="5"/>
     </row>
-    <row r="17" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A17" s="1" t="s">
         <v>7</v>
       </c>
@@ -771,7 +755,7 @@
       <c r="G17" s="3"/>
       <c r="H17" s="2"/>
     </row>
-    <row r="18" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A18" s="6" t="s">
         <v>8</v>
       </c>
@@ -783,7 +767,7 @@
       <c r="G18" s="9"/>
       <c r="H18" s="7"/>
     </row>
-    <row r="19" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A19" s="6" t="s">
         <v>9</v>
       </c>
@@ -795,7 +779,7 @@
       <c r="G19" s="9"/>
       <c r="H19" s="7"/>
     </row>
-    <row r="20" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A20" s="6" t="s">
         <v>10</v>
       </c>
@@ -807,7 +791,7 @@
       <c r="G20" s="9"/>
       <c r="H20" s="7"/>
     </row>
-    <row r="21" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A21" s="1"/>
       <c r="B21" s="2"/>
       <c r="C21" s="12" t="s">
@@ -819,7 +803,7 @@
       <c r="G21" s="9"/>
       <c r="H21" s="7"/>
     </row>
-    <row r="22" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A22" s="4" t="s">
         <v>4</v>
       </c>
@@ -831,7 +815,7 @@
       <c r="G22" s="8"/>
       <c r="H22" s="5"/>
     </row>
-    <row r="23" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A23" s="4" t="s">
         <v>5</v>
       </c>
@@ -843,7 +827,7 @@
       <c r="G23" s="8"/>
       <c r="H23" s="5"/>
     </row>
-    <row r="24" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A24" s="4" t="s">
         <v>6</v>
       </c>
@@ -855,7 +839,7 @@
       <c r="G24" s="8"/>
       <c r="H24" s="5"/>
     </row>
-    <row r="25" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A25" s="1" t="s">
         <v>7</v>
       </c>
@@ -867,7 +851,7 @@
       <c r="G25" s="3"/>
       <c r="H25" s="2"/>
     </row>
-    <row r="26" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A26" s="6" t="s">
         <v>8</v>
       </c>
@@ -879,7 +863,7 @@
       <c r="G26" s="9"/>
       <c r="H26" s="7"/>
     </row>
-    <row r="27" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A27" s="6" t="s">
         <v>9</v>
       </c>
@@ -891,7 +875,7 @@
       <c r="G27" s="9"/>
       <c r="H27" s="7"/>
     </row>
-    <row r="28" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A28" s="6" t="s">
         <v>10</v>
       </c>
@@ -903,9 +887,9 @@
       <c r="G28" s="9"/>
       <c r="H28" s="7"/>
     </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A29" s="4" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B29" s="5"/>
       <c r="C29" s="8"/>
@@ -915,7 +899,7 @@
       <c r="G29" s="8"/>
       <c r="H29" s="5"/>
     </row>
-    <row r="30" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A30" s="6"/>
       <c r="B30" s="7"/>
       <c r="C30" s="9"/>
@@ -925,9 +909,9 @@
       <c r="G30" s="9"/>
       <c r="H30" s="7"/>
     </row>
-    <row r="31" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A31" s="4" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B31" s="5"/>
       <c r="C31" s="8"/>
@@ -937,7 +921,7 @@
       <c r="G31" s="8"/>
       <c r="H31" s="5"/>
     </row>
-    <row r="32" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A32" s="6"/>
       <c r="B32" s="7"/>
       <c r="C32" s="9"/>
@@ -947,6 +931,9 @@
       <c r="G32" s="9"/>
       <c r="H32" s="7"/>
     </row>
+    <row r="33" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C33" s="13"/>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/Algemeen/Scrumlog/Invulblad.xlsx
+++ b/Algemeen/Scrumlog/Invulblad.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="16729"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="16925"/>
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="35">
   <si>
     <t>Week #</t>
   </si>
@@ -72,6 +72,63 @@
   </si>
   <si>
     <t>Wat kan er beter</t>
+  </si>
+  <si>
+    <t>Asylum</t>
+  </si>
+  <si>
+    <t>`Michiel</t>
+  </si>
+  <si>
+    <t>Sprint 7 Models Fixen , en Cutlery</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Puzzle Script </t>
+  </si>
+  <si>
+    <t>Planning 7 , Longchairs ,smallpaper , CSI , Mirror</t>
+  </si>
+  <si>
+    <t>Textures env , Lvl design . Implementing</t>
+  </si>
+  <si>
+    <t>Kitchen Models</t>
+  </si>
+  <si>
+    <t>Laundry room</t>
+  </si>
+  <si>
+    <t>Wat ik op planning zet , en robin helpen</t>
+  </si>
+  <si>
+    <t>Luxechair , Plants , Old tv , Paperstacks , Newspaper</t>
+  </si>
+  <si>
+    <t>Wat ik op de planning zet , Bezig met lvl</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Wat ik Op de planning zet </t>
+  </si>
+  <si>
+    <t>robbin echt heeeeeeeeeeel beidehand</t>
+  </si>
+  <si>
+    <t>NOOOUUUU nee. Naast het feit dat tie geen internet heeft</t>
+  </si>
+  <si>
+    <t>De chick is dood</t>
+  </si>
+  <si>
+    <t>Ziek</t>
+  </si>
+  <si>
+    <t>Helemaal mooi</t>
+  </si>
+  <si>
+    <t>Planning word gevolged</t>
+  </si>
+  <si>
+    <t>Assets sneller af</t>
   </si>
 </sst>
 </file>
@@ -558,7 +615,9 @@
       <c r="B1" s="3"/>
       <c r="C1" s="4"/>
       <c r="D1" s="8"/>
-      <c r="E1" s="8"/>
+      <c r="E1" s="8">
+        <v>24</v>
+      </c>
       <c r="F1" s="8"/>
       <c r="G1" s="8"/>
       <c r="H1" s="5"/>
@@ -568,7 +627,9 @@
         <v>1</v>
       </c>
       <c r="B2" s="8"/>
-      <c r="C2" s="1"/>
+      <c r="C2" s="1" t="s">
+        <v>16</v>
+      </c>
       <c r="D2" s="3"/>
       <c r="E2" s="3"/>
       <c r="F2" s="3"/>
@@ -592,7 +653,9 @@
         <v>2</v>
       </c>
       <c r="B4" s="9"/>
-      <c r="C4" s="6"/>
+      <c r="C4" s="6" t="s">
+        <v>17</v>
+      </c>
       <c r="D4" s="9"/>
       <c r="E4" s="9"/>
       <c r="F4" s="9"/>
@@ -616,7 +679,9 @@
         <v>4</v>
       </c>
       <c r="B6" s="5"/>
-      <c r="C6" s="8"/>
+      <c r="C6" s="8" t="s">
+        <v>18</v>
+      </c>
       <c r="D6" s="8"/>
       <c r="E6" s="8"/>
       <c r="F6" s="8"/>
@@ -628,7 +693,9 @@
         <v>5</v>
       </c>
       <c r="B7" s="5"/>
-      <c r="C7" s="8"/>
+      <c r="C7" s="8" t="s">
+        <v>19</v>
+      </c>
       <c r="D7" s="8"/>
       <c r="E7" s="8"/>
       <c r="F7" s="8"/>
@@ -652,7 +719,9 @@
         <v>7</v>
       </c>
       <c r="B9" s="2"/>
-      <c r="C9" s="3"/>
+      <c r="C9" s="3" t="s">
+        <v>20</v>
+      </c>
       <c r="D9" s="3"/>
       <c r="E9" s="3"/>
       <c r="F9" s="3"/>
@@ -664,7 +733,9 @@
         <v>8</v>
       </c>
       <c r="B10" s="7"/>
-      <c r="C10" s="9"/>
+      <c r="C10" s="9" t="s">
+        <v>21</v>
+      </c>
       <c r="D10" s="9"/>
       <c r="E10" s="9"/>
       <c r="F10" s="9"/>
@@ -688,7 +759,9 @@
         <v>10</v>
       </c>
       <c r="B12" s="7"/>
-      <c r="C12" s="9"/>
+      <c r="C12" s="9" t="s">
+        <v>22</v>
+      </c>
       <c r="D12" s="9"/>
       <c r="E12" s="9"/>
       <c r="F12" s="9"/>
@@ -712,7 +785,9 @@
         <v>4</v>
       </c>
       <c r="B14" s="5"/>
-      <c r="C14" s="8"/>
+      <c r="C14" s="8" t="s">
+        <v>23</v>
+      </c>
       <c r="D14" s="8"/>
       <c r="E14" s="8"/>
       <c r="F14" s="8"/>
@@ -724,7 +799,9 @@
         <v>5</v>
       </c>
       <c r="B15" s="5"/>
-      <c r="C15" s="8"/>
+      <c r="C15" s="8" t="s">
+        <v>24</v>
+      </c>
       <c r="D15" s="8"/>
       <c r="E15" s="8"/>
       <c r="F15" s="8"/>
@@ -748,7 +825,9 @@
         <v>7</v>
       </c>
       <c r="B17" s="2"/>
-      <c r="C17" s="3"/>
+      <c r="C17" s="3" t="s">
+        <v>25</v>
+      </c>
       <c r="D17" s="3"/>
       <c r="E17" s="3"/>
       <c r="F17" s="3"/>
@@ -760,7 +839,9 @@
         <v>8</v>
       </c>
       <c r="B18" s="7"/>
-      <c r="C18" s="9"/>
+      <c r="C18" s="9" t="s">
+        <v>26</v>
+      </c>
       <c r="D18" s="9"/>
       <c r="E18" s="9"/>
       <c r="F18" s="9"/>
@@ -784,7 +865,9 @@
         <v>10</v>
       </c>
       <c r="B20" s="7"/>
-      <c r="C20" s="9"/>
+      <c r="C20" s="9" t="s">
+        <v>27</v>
+      </c>
       <c r="D20" s="9"/>
       <c r="E20" s="9"/>
       <c r="F20" s="9"/>
@@ -808,7 +891,9 @@
         <v>4</v>
       </c>
       <c r="B22" s="5"/>
-      <c r="C22" s="8"/>
+      <c r="C22" s="8" t="s">
+        <v>28</v>
+      </c>
       <c r="D22" s="8"/>
       <c r="E22" s="8"/>
       <c r="F22" s="8"/>
@@ -820,7 +905,9 @@
         <v>5</v>
       </c>
       <c r="B23" s="5"/>
-      <c r="C23" s="8"/>
+      <c r="C23" s="8" t="s">
+        <v>29</v>
+      </c>
       <c r="D23" s="8"/>
       <c r="E23" s="8"/>
       <c r="F23" s="8"/>
@@ -832,7 +919,9 @@
         <v>6</v>
       </c>
       <c r="B24" s="5"/>
-      <c r="C24" s="8"/>
+      <c r="C24" s="8" t="s">
+        <v>30</v>
+      </c>
       <c r="D24" s="8"/>
       <c r="E24" s="8"/>
       <c r="F24" s="8"/>
@@ -844,7 +933,9 @@
         <v>7</v>
       </c>
       <c r="B25" s="2"/>
-      <c r="C25" s="3"/>
+      <c r="C25" s="3" t="s">
+        <v>31</v>
+      </c>
       <c r="D25" s="3"/>
       <c r="E25" s="3"/>
       <c r="F25" s="3"/>
@@ -880,7 +971,9 @@
         <v>10</v>
       </c>
       <c r="B28" s="7"/>
-      <c r="C28" s="9"/>
+      <c r="C28" s="9" t="s">
+        <v>32</v>
+      </c>
       <c r="D28" s="9"/>
       <c r="E28" s="9"/>
       <c r="F28" s="9"/>
@@ -892,7 +985,9 @@
         <v>14</v>
       </c>
       <c r="B29" s="5"/>
-      <c r="C29" s="8"/>
+      <c r="C29" s="8" t="s">
+        <v>33</v>
+      </c>
       <c r="D29" s="8"/>
       <c r="E29" s="8"/>
       <c r="F29" s="8"/>
@@ -914,7 +1009,9 @@
         <v>15</v>
       </c>
       <c r="B31" s="5"/>
-      <c r="C31" s="8"/>
+      <c r="C31" s="8" t="s">
+        <v>34</v>
+      </c>
       <c r="D31" s="8"/>
       <c r="E31" s="8"/>
       <c r="F31" s="8"/>
